--- a/table/allstar_summary.xlsx
+++ b/table/allstar_summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Pitcher</t>
   </si>
@@ -37,12 +37,6 @@
   </si>
   <si>
     <t>Spin Rate (rpm)</t>
-  </si>
-  <si>
-    <t>HorzBreak (cm)</t>
-  </si>
-  <si>
-    <t>InducedVertBreak (cm)</t>
   </si>
   <si>
     <t>Zone%</t>
@@ -109,7 +103,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode=".000"/>
+  </numFmts>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +267,53 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +493,62 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -566,6 +663,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -695,8 +810,179 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="21" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="37" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,6 +1032,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1020,664 +1311,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="2" customWidth="1"/>
+    <col min="4" max="6" width="8.6640625" style="2"/>
+    <col min="7" max="7" width="8.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="2"/>
+    <col min="9" max="9" width="10.08203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="2" customWidth="1"/>
+    <col min="12" max="15" width="8.6640625" style="2"/>
+    <col min="16" max="16" width="13.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" style="2"/>
+    <col min="18" max="18" width="14.25" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="60.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="6">
+        <v>447</v>
+      </c>
+      <c r="D2" s="28">
+        <v>44.4</v>
+      </c>
+      <c r="E2" s="28">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="F2" s="28">
+        <v>2577.1</v>
+      </c>
+      <c r="G2" s="28">
+        <v>43.6</v>
+      </c>
+      <c r="H2" s="28">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I2" s="28">
+        <v>58.8</v>
+      </c>
+      <c r="J2" s="28">
+        <v>63.5</v>
+      </c>
+      <c r="K2" s="28">
+        <v>19.2</v>
+      </c>
+      <c r="L2" s="28">
+        <v>29.1</v>
+      </c>
+      <c r="M2" s="28">
+        <v>56.4</v>
+      </c>
+      <c r="N2" s="28">
+        <v>21.8</v>
+      </c>
+      <c r="O2" s="28">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="P2" s="38">
+        <v>0.312</v>
+      </c>
+      <c r="Q2" s="38">
+        <v>0.253</v>
+      </c>
+      <c r="R2" s="48">
+        <v>6.67</v>
+      </c>
+      <c r="S2" s="48">
+        <v>1.49</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="3" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15"/>
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="10">
+        <v>376</v>
+      </c>
+      <c r="D3" s="29">
+        <v>37.4</v>
+      </c>
+      <c r="E3" s="29">
+        <v>146</v>
+      </c>
+      <c r="F3" s="29">
+        <v>2418</v>
+      </c>
+      <c r="G3" s="29">
+        <v>59.6</v>
+      </c>
+      <c r="H3" s="29">
+        <v>25.5</v>
+      </c>
+      <c r="I3" s="29">
+        <v>44.4</v>
+      </c>
+      <c r="J3" s="29">
+        <v>92.8</v>
+      </c>
+      <c r="K3" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="L3" s="29">
+        <v>28.7</v>
+      </c>
+      <c r="M3" s="29">
+        <v>43.8</v>
+      </c>
+      <c r="N3" s="29">
+        <v>15</v>
+      </c>
+      <c r="O3" s="29">
+        <v>31.2</v>
+      </c>
+      <c r="P3" s="39">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="R3" s="49">
+        <v>6.97</v>
+      </c>
+      <c r="S3" s="49">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15"/>
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2">
-        <v>447</v>
-      </c>
-      <c r="D2">
-        <v>44.4</v>
-      </c>
-      <c r="E2">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="F2">
-        <v>2577.1</v>
-      </c>
-      <c r="G2">
-        <v>-13.8</v>
-      </c>
-      <c r="H2">
-        <v>16.3</v>
-      </c>
-      <c r="I2">
-        <v>43.6</v>
-      </c>
-      <c r="J2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K2">
-        <v>58.8</v>
-      </c>
-      <c r="L2">
-        <v>63.5</v>
-      </c>
-      <c r="M2">
-        <v>19.2</v>
-      </c>
-      <c r="N2">
-        <v>29.1</v>
-      </c>
-      <c r="O2">
-        <v>56.4</v>
-      </c>
-      <c r="P2">
-        <v>21.8</v>
-      </c>
-      <c r="Q2">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="R2">
-        <v>0.312</v>
-      </c>
-      <c r="S2">
-        <v>0.253</v>
-      </c>
-      <c r="T2">
-        <v>6.67</v>
-      </c>
-      <c r="U2">
-        <v>0.01</v>
+      <c r="C4" s="8">
+        <v>167</v>
+      </c>
+      <c r="D4" s="30">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E4" s="30">
+        <v>117.9</v>
+      </c>
+      <c r="F4" s="30">
+        <v>2419.5</v>
+      </c>
+      <c r="G4" s="30">
+        <v>41.3</v>
+      </c>
+      <c r="H4" s="30">
+        <v>16.8</v>
+      </c>
+      <c r="I4" s="30">
+        <v>43.1</v>
+      </c>
+      <c r="J4" s="30">
+        <v>62.5</v>
+      </c>
+      <c r="K4" s="30">
+        <v>11.4</v>
+      </c>
+      <c r="L4" s="30">
+        <v>28.1</v>
+      </c>
+      <c r="M4" s="30">
+        <v>55.6</v>
+      </c>
+      <c r="N4" s="30">
+        <v>18.5</v>
+      </c>
+      <c r="O4" s="30">
+        <v>23.1</v>
+      </c>
+      <c r="P4" s="40">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="Q4" s="40">
+        <v>0.193</v>
+      </c>
+      <c r="R4" s="50">
+        <v>3.85</v>
+      </c>
+      <c r="S4" s="50">
+        <v>2.31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="5" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12">
+        <v>9</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="31">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="F5" s="31">
+        <v>2132.9</v>
+      </c>
+      <c r="G5" s="31">
+        <v>22.2</v>
+      </c>
+      <c r="H5" s="31">
+        <v>11.1</v>
+      </c>
+      <c r="I5" s="31">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J5" s="31">
+        <v>100</v>
+      </c>
+      <c r="K5" s="31">
+        <v>0</v>
+      </c>
+      <c r="L5" s="31">
+        <v>11.1</v>
+      </c>
+      <c r="M5" s="31">
+        <v>0</v>
+      </c>
+      <c r="N5" s="31">
+        <v>100</v>
+      </c>
+      <c r="O5" s="31">
+        <v>0</v>
+      </c>
+      <c r="P5" s="41">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="Q5" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="R5" s="51">
+        <v>-0.3</v>
+      </c>
+      <c r="S5" s="51">
+        <v>-3.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="14">
+        <v>7</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="32">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="F6" s="32">
+        <v>2384.1</v>
+      </c>
+      <c r="G6" s="32">
+        <v>42.9</v>
+      </c>
+      <c r="H6" s="32">
+        <v>28.6</v>
+      </c>
+      <c r="I6" s="32">
+        <v>14.3</v>
+      </c>
+      <c r="J6" s="32">
+        <v>100</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>28.6</v>
+      </c>
+      <c r="M6" s="32">
+        <v>100</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>100</v>
+      </c>
+      <c r="P6" s="42">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="52">
+        <v>-0.74</v>
+      </c>
+      <c r="S6" s="52">
+        <v>-10.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+    </row>
+    <row r="8" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C8" s="20">
+        <v>562</v>
+      </c>
+      <c r="D8" s="34">
+        <v>34.6</v>
+      </c>
+      <c r="E8" s="34">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2220.1999999999998</v>
+      </c>
+      <c r="G8" s="34">
+        <v>58.2</v>
+      </c>
+      <c r="H8" s="34">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I8" s="34">
+        <v>54.4</v>
+      </c>
+      <c r="J8" s="34">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="K8" s="34">
+        <v>13</v>
+      </c>
+      <c r="L8" s="34">
+        <v>30.1</v>
+      </c>
+      <c r="M8" s="34">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="N8" s="34">
+        <v>22.8</v>
+      </c>
+      <c r="O8" s="34">
+        <v>39.1</v>
+      </c>
+      <c r="P8" s="44">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="R8" s="54">
+        <v>3.56</v>
+      </c>
+      <c r="S8" s="54">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="18"/>
+      <c r="B9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="22">
+        <v>409</v>
+      </c>
+      <c r="D9" s="35">
+        <v>25.2</v>
+      </c>
+      <c r="E9" s="35">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="F9" s="35">
+        <v>2650</v>
+      </c>
+      <c r="G9" s="35">
+        <v>50.6</v>
+      </c>
+      <c r="H9" s="35">
+        <v>25.9</v>
+      </c>
+      <c r="I9" s="35">
+        <v>36.9</v>
+      </c>
+      <c r="J9" s="35">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K9" s="35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L9" s="35">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="M9" s="35">
+        <v>60.7</v>
+      </c>
+      <c r="N9" s="35">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O9" s="35">
+        <v>23.2</v>
+      </c>
+      <c r="P9" s="45">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R9" s="55">
+        <v>9.83</v>
+      </c>
+      <c r="S9" s="55">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="18"/>
+      <c r="B10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
-        <v>376</v>
-      </c>
-      <c r="D3">
-        <v>37.4</v>
-      </c>
-      <c r="E3">
-        <v>146</v>
-      </c>
-      <c r="F3">
-        <v>2418</v>
-      </c>
-      <c r="G3">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="H3">
-        <v>47.6</v>
-      </c>
-      <c r="I3">
-        <v>59.6</v>
-      </c>
-      <c r="J3">
-        <v>25.5</v>
-      </c>
-      <c r="K3">
-        <v>44.4</v>
-      </c>
-      <c r="L3">
-        <v>92.8</v>
-      </c>
-      <c r="M3">
-        <v>3.2</v>
-      </c>
-      <c r="N3">
-        <v>28.7</v>
-      </c>
-      <c r="O3">
-        <v>43.8</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-      <c r="Q3">
-        <v>31.2</v>
-      </c>
-      <c r="R3">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="S3">
-        <v>0.25</v>
-      </c>
-      <c r="T3">
-        <v>6.97</v>
-      </c>
-      <c r="U3">
-        <v>0.02</v>
+      <c r="C10" s="24">
+        <v>396</v>
+      </c>
+      <c r="D10" s="36">
+        <v>24.4</v>
+      </c>
+      <c r="E10" s="36">
+        <v>141.1</v>
+      </c>
+      <c r="F10" s="36">
+        <v>1722.8</v>
+      </c>
+      <c r="G10" s="36">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H10" s="36">
+        <v>14.6</v>
+      </c>
+      <c r="I10" s="36">
+        <v>50.5</v>
+      </c>
+      <c r="J10" s="36">
+        <v>55</v>
+      </c>
+      <c r="K10" s="36">
+        <v>22.5</v>
+      </c>
+      <c r="L10" s="36">
+        <v>37.1</v>
+      </c>
+      <c r="M10" s="36">
+        <v>61.4</v>
+      </c>
+      <c r="N10" s="36">
+        <v>24.6</v>
+      </c>
+      <c r="O10" s="36">
+        <v>22.8</v>
+      </c>
+      <c r="P10" s="46">
+        <v>0.308</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="R10" s="56">
+        <v>9.18</v>
+      </c>
+      <c r="S10" s="56">
+        <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>167</v>
-      </c>
-      <c r="D4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="E4">
-        <v>117.9</v>
-      </c>
-      <c r="F4">
-        <v>2419.5</v>
-      </c>
-      <c r="G4">
-        <v>-12.8</v>
-      </c>
-      <c r="H4">
-        <v>-40.200000000000003</v>
-      </c>
-      <c r="I4">
-        <v>41.3</v>
-      </c>
-      <c r="J4">
-        <v>16.8</v>
-      </c>
-      <c r="K4">
-        <v>43.1</v>
-      </c>
-      <c r="L4">
-        <v>62.5</v>
-      </c>
-      <c r="M4">
-        <v>11.4</v>
-      </c>
-      <c r="N4">
-        <v>28.1</v>
-      </c>
-      <c r="O4">
-        <v>55.6</v>
-      </c>
-      <c r="P4">
-        <v>18.5</v>
-      </c>
-      <c r="Q4">
-        <v>23.1</v>
-      </c>
-      <c r="R4">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="S4">
-        <v>0.193</v>
-      </c>
-      <c r="T4">
-        <v>3.85</v>
-      </c>
-      <c r="U4">
-        <v>0.02</v>
+    <row r="11" spans="1:19" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="27">
+        <v>255</v>
+      </c>
+      <c r="D11" s="37">
+        <v>15.7</v>
+      </c>
+      <c r="E11" s="37">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="F11" s="37">
+        <v>2361</v>
+      </c>
+      <c r="G11" s="37">
+        <v>52.9</v>
+      </c>
+      <c r="H11" s="37">
+        <v>17.3</v>
+      </c>
+      <c r="I11" s="37">
+        <v>55.3</v>
+      </c>
+      <c r="J11" s="37">
+        <v>53.9</v>
+      </c>
+      <c r="K11" s="37">
+        <v>25.1</v>
+      </c>
+      <c r="L11" s="37">
+        <v>42.4</v>
+      </c>
+      <c r="M11" s="37">
+        <v>59</v>
+      </c>
+      <c r="N11" s="37">
+        <v>25.6</v>
+      </c>
+      <c r="O11" s="37">
+        <v>30.8</v>
+      </c>
+      <c r="P11" s="47">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="Q11" s="47">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="R11" s="57">
+        <v>2.57</v>
+      </c>
+      <c r="S11" s="57">
+        <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0.9</v>
-      </c>
-      <c r="E5">
-        <v>134.80000000000001</v>
-      </c>
-      <c r="F5">
-        <v>2132.9</v>
-      </c>
-      <c r="G5">
-        <v>32.5</v>
-      </c>
-      <c r="H5">
-        <v>40.1</v>
-      </c>
-      <c r="I5">
-        <v>22.2</v>
-      </c>
-      <c r="J5">
-        <v>11.1</v>
-      </c>
-      <c r="K5">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>11.1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>100</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="S5">
-        <v>0.9</v>
-      </c>
-      <c r="T5">
-        <v>-0.3</v>
-      </c>
-      <c r="U5">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>0.7</v>
-      </c>
-      <c r="E6">
-        <v>146.19999999999999</v>
-      </c>
-      <c r="F6">
-        <v>2384.1</v>
-      </c>
-      <c r="G6">
-        <v>21.6</v>
-      </c>
-      <c r="H6">
-        <v>47.1</v>
-      </c>
-      <c r="I6">
-        <v>42.9</v>
-      </c>
-      <c r="J6">
-        <v>28.6</v>
-      </c>
-      <c r="K6">
-        <v>14.3</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>28.6</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>100</v>
-      </c>
-      <c r="R6">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="S6">
-        <v>0.9</v>
-      </c>
-      <c r="T6">
-        <v>-0.74</v>
-      </c>
-      <c r="U6">
-        <v>-0.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>562</v>
-      </c>
-      <c r="D7">
-        <v>34.6</v>
-      </c>
-      <c r="E7">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="F7">
-        <v>2220.1999999999998</v>
-      </c>
-      <c r="G7">
-        <v>27.3</v>
-      </c>
-      <c r="H7">
-        <v>44.7</v>
-      </c>
-      <c r="I7">
-        <v>58.2</v>
-      </c>
-      <c r="J7">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="K7">
-        <v>54.4</v>
-      </c>
-      <c r="L7">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
-      </c>
-      <c r="N7">
-        <v>30.1</v>
-      </c>
-      <c r="O7">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="P7">
-        <v>22.8</v>
-      </c>
-      <c r="Q7">
-        <v>39.1</v>
-      </c>
-      <c r="R7">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="S7">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="T7">
-        <v>3.56</v>
-      </c>
-      <c r="U7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>409</v>
-      </c>
-      <c r="D8">
-        <v>25.2</v>
-      </c>
-      <c r="E8">
-        <v>131.30000000000001</v>
-      </c>
-      <c r="F8">
-        <v>2650</v>
-      </c>
-      <c r="G8">
-        <v>-21.8</v>
-      </c>
-      <c r="H8">
-        <v>-31</v>
-      </c>
-      <c r="I8">
-        <v>50.6</v>
-      </c>
-      <c r="J8">
-        <v>25.9</v>
-      </c>
-      <c r="K8">
-        <v>36.9</v>
-      </c>
-      <c r="L8">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="M8">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N8">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="O8">
-        <v>60.7</v>
-      </c>
-      <c r="P8">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="Q8">
-        <v>23.2</v>
-      </c>
-      <c r="R8">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="S8">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="T8">
-        <v>9.83</v>
-      </c>
-      <c r="U8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>396</v>
-      </c>
-      <c r="D9">
-        <v>24.4</v>
-      </c>
-      <c r="E9">
-        <v>141.1</v>
-      </c>
-      <c r="F9">
-        <v>1722.8</v>
-      </c>
-      <c r="G9">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H9">
-        <v>25.7</v>
-      </c>
-      <c r="I9">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="J9">
-        <v>14.6</v>
-      </c>
-      <c r="K9">
-        <v>50.5</v>
-      </c>
-      <c r="L9">
-        <v>55</v>
-      </c>
-      <c r="M9">
-        <v>22.5</v>
-      </c>
-      <c r="N9">
-        <v>37.1</v>
-      </c>
-      <c r="O9">
-        <v>61.4</v>
-      </c>
-      <c r="P9">
-        <v>24.6</v>
-      </c>
-      <c r="Q9">
-        <v>22.8</v>
-      </c>
-      <c r="R9">
-        <v>0.308</v>
-      </c>
-      <c r="S9">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="T9">
-        <v>9.18</v>
-      </c>
-      <c r="U9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>255</v>
-      </c>
-      <c r="D10">
-        <v>15.7</v>
-      </c>
-      <c r="E10">
-        <v>142.80000000000001</v>
-      </c>
-      <c r="F10">
-        <v>2361</v>
-      </c>
-      <c r="G10">
-        <v>-10.1</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>52.9</v>
-      </c>
-      <c r="J10">
-        <v>17.3</v>
-      </c>
-      <c r="K10">
-        <v>55.3</v>
-      </c>
-      <c r="L10">
-        <v>53.9</v>
-      </c>
-      <c r="M10">
-        <v>25.1</v>
-      </c>
-      <c r="N10">
-        <v>42.4</v>
-      </c>
-      <c r="O10">
-        <v>59</v>
-      </c>
-      <c r="P10">
-        <v>25.6</v>
-      </c>
-      <c r="Q10">
-        <v>30.8</v>
-      </c>
-      <c r="R10">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="S10">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="T10">
-        <v>2.57</v>
-      </c>
-      <c r="U10">
-        <v>0.01</v>
-      </c>
-    </row>
+    <row r="12" spans="1:19" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A11"/>
+  </mergeCells>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>